--- a/tools/tool_comparison.xlsx
+++ b/tools/tool_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malte.hedderich\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FF0A64D-8AEC-4C77-AF31-7DF031D42D9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFD7DE4-DDB0-42F9-A1A7-1EFEA41628A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="33120" windowHeight="18720" xr2:uid="{75E6F8AA-EEEA-492E-9D86-DC2E8B815BBA}"/>
   </bookViews>
@@ -172,21 +172,6 @@
     <t>Link</t>
   </si>
   <si>
-    <t>Latest Release</t>
-  </si>
-  <si>
-    <t>GitHub Total Releases</t>
-  </si>
-  <si>
-    <t>GitHub Last Release</t>
-  </si>
-  <si>
-    <t>GitHub Contributors</t>
-  </si>
-  <si>
-    <t>GitHub Stars</t>
-  </si>
-  <si>
     <t>License</t>
   </si>
   <si>
@@ -953,6 +938,21 @@
   </si>
   <si>
     <t>https://github.com/huggingface/accelerate</t>
+  </si>
+  <si>
+    <t>Total Releases</t>
+  </si>
+  <si>
+    <t>Latest Release Date</t>
+  </si>
+  <si>
+    <t>Latest Release Version</t>
+  </si>
+  <si>
+    <t>Contributors</t>
+  </si>
+  <si>
+    <t>Stars</t>
   </si>
 </sst>
 </file>
@@ -1106,6 +1106,25 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="27">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="FrontPage Pro Light"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1429,25 +1448,6 @@
         <name val="FrontPage Pro Light"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="FrontPage Pro Light"/>
-        <scheme val="none"/>
-      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1622,26 +1622,26 @@
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{CDF56DC3-6FD5-4C49-A24F-03DC0F55773B}" name="Name" dataDxfId="21"/>
     <tableColumn id="2" xr3:uid="{D06CCB7A-0125-4942-B7C9-7006C3EC8A5E}" name="Link" dataDxfId="20"/>
-    <tableColumn id="10" xr3:uid="{7C819108-B5F7-4D77-96FF-F95D4B07F752}" name="Latest Release" dataDxfId="19"/>
-    <tableColumn id="11" xr3:uid="{F99CDDF4-18E6-4E49-A038-D53D32D4F426}" name="GitHub Total Releases" dataDxfId="18"/>
-    <tableColumn id="12" xr3:uid="{32B1F610-C8B0-4A96-8EEA-8F4E42BD35D5}" name="GitHub Last Release" dataDxfId="17"/>
-    <tableColumn id="13" xr3:uid="{9D1770D1-7B7C-4991-88EA-1F0B9C870FB1}" name="GitHub Contributors" dataDxfId="16"/>
-    <tableColumn id="14" xr3:uid="{7E94F4E5-27DE-4EE1-AC7B-E8FB63DD9DF3}" name="GitHub Stars" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{CA745B23-D6C2-499D-BBCF-3F722174FEED}" name="License" dataDxfId="14"/>
-    <tableColumn id="25" xr3:uid="{FC7D8997-72DA-4468-846E-E4B54524E443}" name="Compatible with HashiCorp Stack" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{A3A67FBA-D650-4267-B4AC-EC1EF52EAFB1}" name="Data Processing" dataDxfId="12"/>
-    <tableColumn id="16" xr3:uid="{38A15068-A995-453A-AF5C-1D5ACB10DCC3}" name="Feature Store" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{F4AE6219-1A5D-47D6-92B5-70F74B4CBCAE}" name="Model Registry" dataDxfId="10"/>
-    <tableColumn id="17" xr3:uid="{7FA6EBD9-1E3B-4A2E-99A4-D62B7AF216A7}" name="Model Metadata" dataDxfId="9"/>
-    <tableColumn id="22" xr3:uid="{ED01CFDF-A785-4C00-8F0D-F11F12054464}" name="Model Training" dataDxfId="8"/>
-    <tableColumn id="18" xr3:uid="{F6DCB7F6-7519-42F7-91A7-1E42856B15A2}" name="Artifact Metadata" dataDxfId="7"/>
-    <tableColumn id="24" xr3:uid="{8260CF5A-CDE8-469E-8E86-0DE08CAA7196}" name="Hyperparameter Tuning" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{D936C9C3-8AD9-4E5C-916C-FE7DABD3774C}" name="Experiment Tracking" dataDxfId="5"/>
-    <tableColumn id="20" xr3:uid="{91E882AA-A0CA-4C58-9B42-D6DD4FFFF654}" name="Notebook Server" dataDxfId="4"/>
-    <tableColumn id="19" xr3:uid="{C38520A9-918F-479B-B709-0A060AD3F59B}" name="Model Serving" dataDxfId="3"/>
-    <tableColumn id="26" xr3:uid="{0AD5ED03-5855-4C81-8262-E72885C1199E}" name="Monitoring" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{E782DB27-E0C8-438E-A615-5641A47A6A7F}" name="Pipeline" dataDxfId="1"/>
-    <tableColumn id="15" xr3:uid="{A2277ADC-4F33-4189-A36F-436CC8A29A44}" name="Comment" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{7C819108-B5F7-4D77-96FF-F95D4B07F752}" name="Latest Release Version" dataDxfId="19"/>
+    <tableColumn id="12" xr3:uid="{32B1F610-C8B0-4A96-8EEA-8F4E42BD35D5}" name="Latest Release Date" dataDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{F99CDDF4-18E6-4E49-A038-D53D32D4F426}" name="Total Releases" dataDxfId="18"/>
+    <tableColumn id="13" xr3:uid="{9D1770D1-7B7C-4991-88EA-1F0B9C870FB1}" name="Contributors" dataDxfId="17"/>
+    <tableColumn id="14" xr3:uid="{7E94F4E5-27DE-4EE1-AC7B-E8FB63DD9DF3}" name="Stars" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{CA745B23-D6C2-499D-BBCF-3F722174FEED}" name="License" dataDxfId="15"/>
+    <tableColumn id="25" xr3:uid="{FC7D8997-72DA-4468-846E-E4B54524E443}" name="Compatible with HashiCorp Stack" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{A3A67FBA-D650-4267-B4AC-EC1EF52EAFB1}" name="Data Processing" dataDxfId="13"/>
+    <tableColumn id="16" xr3:uid="{38A15068-A995-453A-AF5C-1D5ACB10DCC3}" name="Feature Store" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{F4AE6219-1A5D-47D6-92B5-70F74B4CBCAE}" name="Model Registry" dataDxfId="11"/>
+    <tableColumn id="17" xr3:uid="{7FA6EBD9-1E3B-4A2E-99A4-D62B7AF216A7}" name="Model Metadata" dataDxfId="10"/>
+    <tableColumn id="22" xr3:uid="{ED01CFDF-A785-4C00-8F0D-F11F12054464}" name="Model Training" dataDxfId="9"/>
+    <tableColumn id="18" xr3:uid="{F6DCB7F6-7519-42F7-91A7-1E42856B15A2}" name="Artifact Metadata" dataDxfId="8"/>
+    <tableColumn id="24" xr3:uid="{8260CF5A-CDE8-469E-8E86-0DE08CAA7196}" name="Hyperparameter Tuning" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{D936C9C3-8AD9-4E5C-916C-FE7DABD3774C}" name="Experiment Tracking" dataDxfId="6"/>
+    <tableColumn id="20" xr3:uid="{91E882AA-A0CA-4C58-9B42-D6DD4FFFF654}" name="Notebook Server" dataDxfId="5"/>
+    <tableColumn id="19" xr3:uid="{C38520A9-918F-479B-B709-0A060AD3F59B}" name="Model Serving" dataDxfId="4"/>
+    <tableColumn id="26" xr3:uid="{0AD5ED03-5855-4C81-8262-E72885C1199E}" name="Monitoring" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{E782DB27-E0C8-438E-A615-5641A47A6A7F}" name="Pipeline" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{A2277ADC-4F33-4189-A36F-436CC8A29A44}" name="Comment" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="Light Grey" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1946,8 +1946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F6B412-7DC2-42A5-A64D-9CF6C1FBA493}">
   <dimension ref="A1:V93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1971,81 +1971,81 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="V1" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="8">
+        <v>18</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="8">
         <v>10</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>24</v>
       </c>
       <c r="F2" s="8">
         <v>39</v>
@@ -2054,7 +2054,7 @@
         <v>2300</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I2" s="8" t="b">
         <v>0</v>
@@ -2096,24 +2096,24 @@
         <v>0</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="8">
+        <v>23</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="8">
         <v>17</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>29</v>
       </c>
       <c r="F3" s="8">
         <v>31</v>
@@ -2122,7 +2122,7 @@
         <v>2300</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I3" s="8" t="b">
         <v>1</v>
@@ -2166,19 +2166,19 @@
     </row>
     <row r="4" spans="1:22" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="8">
+        <v>26</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="8">
         <v>45</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>32</v>
       </c>
       <c r="F4" s="8">
         <v>2006</v>
@@ -2187,7 +2187,7 @@
         <v>25300</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I4" s="8" t="b">
         <v>0</v>
@@ -2231,19 +2231,19 @@
     </row>
     <row r="5" spans="1:22" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="8">
+        <v>29</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="8">
         <v>173</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>35</v>
       </c>
       <c r="F5" s="8">
         <v>1802</v>
@@ -2252,7 +2252,7 @@
         <v>32400</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I5" s="8" t="b">
         <v>1</v>
@@ -2296,19 +2296,19 @@
     </row>
     <row r="6" spans="1:22" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="8">
+        <v>32</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="8">
         <v>244</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>38</v>
       </c>
       <c r="F6" s="8">
         <v>543</v>
@@ -2317,7 +2317,7 @@
         <v>10800</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I6" s="8" t="b">
         <v>0</v>
@@ -2361,19 +2361,19 @@
     </row>
     <row r="7" spans="1:22" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="8">
+        <v>35</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="8">
         <v>59</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>41</v>
       </c>
       <c r="F7" s="8">
         <v>108</v>
@@ -2382,7 +2382,7 @@
         <v>3300</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I7" s="8" t="b">
         <v>0</v>
@@ -2426,19 +2426,19 @@
     </row>
     <row r="8" spans="1:22" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="8">
+        <v>38</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="8">
         <v>47</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>44</v>
       </c>
       <c r="F8" s="8">
         <v>2</v>
@@ -2447,7 +2447,7 @@
         <v>325</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I8" s="8" t="b">
         <v>0</v>
@@ -2491,19 +2491,19 @@
     </row>
     <row r="9" spans="1:22" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="8">
         <v>48</v>
-      </c>
-      <c r="D9" s="8">
-        <v>48</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>49</v>
       </c>
       <c r="F9" s="8">
         <v>16</v>
@@ -2512,7 +2512,7 @@
         <v>204</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I9" s="8" t="b">
         <v>1</v>
@@ -2556,19 +2556,19 @@
     </row>
     <row r="10" spans="1:22" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="8">
+        <v>46</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="8">
         <v>58</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>52</v>
       </c>
       <c r="F10" s="8">
         <v>44</v>
@@ -2577,7 +2577,7 @@
         <v>3100</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I10" s="8" t="b">
         <v>0</v>
@@ -2621,19 +2621,19 @@
     </row>
     <row r="11" spans="1:22" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="8">
+        <v>49</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="8">
         <v>30</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>55</v>
       </c>
       <c r="F11" s="8">
         <v>25</v>
@@ -2642,7 +2642,7 @@
         <v>3100</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I11" s="8" t="b">
         <v>0</v>
@@ -2687,19 +2687,19 @@
     </row>
     <row r="12" spans="1:22" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="8">
+        <v>52</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="8">
         <v>62</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>58</v>
       </c>
       <c r="F12" s="8">
         <v>22</v>
@@ -2708,7 +2708,7 @@
         <v>7700</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I12" s="8" t="b">
         <v>0</v>
@@ -2750,24 +2750,24 @@
         <v>0</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:22" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="8">
+        <v>56</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="8">
         <v>173</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>62</v>
       </c>
       <c r="F13" s="8">
         <v>179</v>
@@ -2776,7 +2776,7 @@
         <v>4500</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I13" s="8" t="b">
         <v>0</v>
@@ -2818,24 +2818,24 @@
         <v>1</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:22" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="8">
+        <v>60</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="8">
         <v>236</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>62</v>
       </c>
       <c r="F14" s="8">
         <v>502</v>
@@ -2844,7 +2844,7 @@
         <v>9700</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I14" s="8" t="b">
         <v>0</v>
@@ -2889,19 +2889,19 @@
     </row>
     <row r="15" spans="1:22" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="8">
+        <v>63</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="8">
         <v>358</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>55</v>
       </c>
       <c r="F15" s="8">
         <v>241</v>
@@ -2910,7 +2910,7 @@
         <v>9500</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I15" s="8" t="b">
         <v>1</v>
@@ -2955,19 +2955,19 @@
     </row>
     <row r="16" spans="1:22" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="8">
+        <v>65</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="8">
         <v>28</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>52</v>
       </c>
       <c r="F16" s="8">
         <v>108</v>
@@ -2976,7 +2976,7 @@
         <v>6600</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I16" s="8" t="b">
         <v>0</v>
@@ -3018,24 +3018,24 @@
         <v>0</v>
       </c>
       <c r="V16" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:22" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="8">
+        <v>68</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="8">
         <v>11</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>74</v>
       </c>
       <c r="F17" s="8">
         <v>148</v>
@@ -3044,7 +3044,7 @@
         <v>4200</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I17" s="8" t="b">
         <v>1</v>
@@ -3089,19 +3089,19 @@
     </row>
     <row r="18" spans="1:22" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="8">
+        <v>72</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="8">
         <v>128</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>55</v>
       </c>
       <c r="F18" s="8">
         <v>68</v>
@@ -3110,7 +3110,7 @@
         <v>10400</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I18" s="8" t="b">
         <v>1</v>
@@ -3155,19 +3155,19 @@
     </row>
     <row r="19" spans="1:22" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="8">
+        <v>74</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="8">
         <v>60</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>80</v>
       </c>
       <c r="F19" s="8">
         <v>122</v>
@@ -3176,7 +3176,7 @@
         <v>3000</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I19" s="8" t="b">
         <v>1</v>
@@ -3221,19 +3221,19 @@
     </row>
     <row r="20" spans="1:22" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="8">
+        <v>74</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="8">
         <v>48</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>82</v>
       </c>
       <c r="F20" s="8">
         <v>80</v>
@@ -3242,7 +3242,7 @@
         <v>2100</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I20" s="8" t="b">
         <v>0</v>
@@ -3287,19 +3287,19 @@
     </row>
     <row r="21" spans="1:22" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="8">
         <v>85</v>
-      </c>
-      <c r="D21" s="8">
-        <v>85</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>86</v>
       </c>
       <c r="F21" s="8">
         <v>177</v>
@@ -3308,7 +3308,7 @@
         <v>10100</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I21" s="8" t="b">
         <v>1</v>
@@ -3353,19 +3353,19 @@
     </row>
     <row r="22" spans="1:22" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" s="8">
+        <v>83</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="8">
         <v>16</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="F22" s="8">
         <v>15</v>
@@ -3374,7 +3374,7 @@
         <v>680</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I22" s="8" t="b">
         <v>1</v>
@@ -3419,19 +3419,19 @@
     </row>
     <row r="23" spans="1:22" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" s="8">
+        <v>85</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="8">
         <v>3174</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>55</v>
       </c>
       <c r="F23" s="8">
         <v>155</v>
@@ -3440,7 +3440,7 @@
         <v>5800</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I23" s="8" t="b">
         <v>0</v>
@@ -3485,19 +3485,19 @@
     </row>
     <row r="24" spans="1:22" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="8">
+        <v>87</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="8">
         <v>19</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>93</v>
       </c>
       <c r="F24" s="8">
         <v>37</v>
@@ -3506,7 +3506,7 @@
         <v>688</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I24" s="8" t="b">
         <v>1</v>
@@ -3551,19 +3551,19 @@
     </row>
     <row r="25" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" s="8">
+        <v>90</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="8">
         <v>17</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>82</v>
       </c>
       <c r="F25" s="8">
         <v>145</v>
@@ -3572,7 +3572,7 @@
         <v>12300</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I25" s="8" t="b">
         <v>0</v>
@@ -3617,19 +3617,19 @@
     </row>
     <row r="26" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D26" s="8">
+        <v>92</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="8">
         <v>32</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>98</v>
       </c>
       <c r="F26" s="8">
         <v>22</v>
@@ -3638,7 +3638,7 @@
         <v>252</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I26" s="8" t="b">
         <v>0</v>
@@ -3683,19 +3683,19 @@
     </row>
     <row r="27" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D27" s="8">
+        <v>95</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="8">
         <v>11</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>101</v>
       </c>
       <c r="F27" s="8">
         <v>90</v>
@@ -3704,7 +3704,7 @@
         <v>6100</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I27" s="8" t="b">
         <v>1</v>
@@ -3749,19 +3749,19 @@
     </row>
     <row r="28" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D28" s="8">
+        <v>100</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="8">
         <v>39</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>106</v>
       </c>
       <c r="F28" s="8">
         <v>66</v>
@@ -3770,7 +3770,7 @@
         <v>739</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I28" s="8" t="b">
         <v>1</v>
@@ -3815,19 +3815,19 @@
     </row>
     <row r="29" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="D29" s="8">
+        <v>188</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="E29" s="8">
         <v>9</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>194</v>
       </c>
       <c r="F29" s="8">
         <v>121</v>
@@ -3836,7 +3836,7 @@
         <v>1400</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
@@ -3855,19 +3855,19 @@
     </row>
     <row r="30" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D30" s="8">
+        <v>104</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" s="8">
         <v>61</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>110</v>
       </c>
       <c r="F30" s="8">
         <v>204</v>
@@ -3876,7 +3876,7 @@
         <v>6600</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I30" s="8" t="b">
         <v>1</v>
@@ -3921,19 +3921,19 @@
     </row>
     <row r="31" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D31" s="8">
+        <v>107</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="8">
         <v>10</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>113</v>
       </c>
       <c r="F31" s="8">
         <v>87</v>
@@ -3942,7 +3942,7 @@
         <v>1200</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I31" s="8" t="b">
         <v>0</v>
@@ -3987,19 +3987,19 @@
     </row>
     <row r="32" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D32" s="8">
+        <v>110</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="8">
         <v>30</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>24</v>
       </c>
       <c r="F32" s="8">
         <v>135</v>
@@ -4008,7 +4008,7 @@
         <v>6800</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I32" s="8" t="b">
         <v>1</v>
@@ -4053,19 +4053,19 @@
     </row>
     <row r="33" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D33" s="8">
+        <v>112</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="8">
         <v>12</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>29</v>
       </c>
       <c r="F33" s="8">
         <v>43</v>
@@ -4074,7 +4074,7 @@
         <v>2500</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I33" s="8" t="b">
         <v>1</v>
@@ -4119,19 +4119,19 @@
     </row>
     <row r="34" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" s="8">
+        <v>26</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="8">
         <v>79</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>82</v>
       </c>
       <c r="F34" s="8">
         <v>243</v>
@@ -4140,7 +4140,7 @@
         <v>11400</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I34" s="8" t="b">
         <v>0</v>
@@ -4185,19 +4185,19 @@
     </row>
     <row r="35" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D35" s="8">
+        <v>115</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" s="8">
         <v>70</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>121</v>
       </c>
       <c r="F35" s="8">
         <v>59</v>
@@ -4206,7 +4206,7 @@
         <v>2300</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I35" s="8" t="b">
         <v>1</v>
@@ -4251,19 +4251,19 @@
     </row>
     <row r="36" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D36" s="8">
+        <v>118</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E36" s="8">
         <v>25</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>124</v>
       </c>
       <c r="F36" s="8">
         <v>59</v>
@@ -4272,7 +4272,7 @@
         <v>983</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I36" s="8" t="b">
         <v>1</v>
@@ -4317,19 +4317,19 @@
     </row>
     <row r="37" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D37" s="8">
+        <v>121</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" s="8">
         <v>44</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>127</v>
       </c>
       <c r="F37" s="8">
         <v>53</v>
@@ -4338,7 +4338,7 @@
         <v>5400</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I37" s="8" t="b">
         <v>0</v>
@@ -4380,19 +4380,19 @@
         <v>1</v>
       </c>
       <c r="V37" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="18"/>
       <c r="F38" s="18"/>
       <c r="G38" s="20"/>
       <c r="H38" s="18"/>
@@ -4413,19 +4413,19 @@
     </row>
     <row r="39" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D39" s="8">
+        <v>123</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" s="8">
         <v>29</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>129</v>
       </c>
       <c r="F39" s="8">
         <v>13</v>
@@ -4434,7 +4434,7 @@
         <v>448</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I39" s="8" t="b">
         <v>1</v>
@@ -4479,19 +4479,19 @@
     </row>
     <row r="40" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D40" s="8">
+        <v>126</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E40" s="8">
         <v>381</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>132</v>
       </c>
       <c r="F40" s="8">
         <v>381</v>
@@ -4500,7 +4500,7 @@
         <v>11600</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I40" s="8" t="b">
         <v>1</v>
@@ -4542,24 +4542,24 @@
         <v>0</v>
       </c>
       <c r="V40" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D41" s="8">
+        <v>130</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="8">
         <v>215</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>24</v>
       </c>
       <c r="F41" s="8">
         <v>48</v>
@@ -4568,7 +4568,7 @@
         <v>597</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I41" s="8" t="b">
         <v>0</v>
@@ -4613,19 +4613,19 @@
     </row>
     <row r="42" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D42" s="8">
+        <v>132</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="E42" s="8">
         <v>219</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>138</v>
       </c>
       <c r="F42" s="8">
         <v>69</v>
@@ -4634,7 +4634,7 @@
         <v>4300</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I42" s="8" t="b">
         <v>0</v>
@@ -4676,24 +4676,24 @@
         <v>0</v>
       </c>
       <c r="V42" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D43" s="8">
+        <v>63</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E43" s="8">
         <v>44</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>141</v>
       </c>
       <c r="F43" s="8">
         <v>163</v>
@@ -4702,7 +4702,7 @@
         <v>6200</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I43" s="8" t="b">
         <v>1</v>
@@ -4747,19 +4747,19 @@
     </row>
     <row r="44" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D44" s="8">
+        <v>139</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E44" s="8">
         <v>2</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>145</v>
       </c>
       <c r="F44" s="8">
         <v>4</v>
@@ -4768,7 +4768,7 @@
         <v>2600</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I44" s="8" t="b">
         <v>1</v>
@@ -4810,24 +4810,24 @@
         <v>0</v>
       </c>
       <c r="V44" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D45" s="8">
+        <v>143</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E45" s="8">
         <v>284</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>62</v>
       </c>
       <c r="F45" s="8">
         <v>148</v>
@@ -4836,7 +4836,7 @@
         <v>5400</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I45" s="8" t="b">
         <v>1</v>
@@ -4881,19 +4881,19 @@
     </row>
     <row r="46" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D46" s="8">
+        <v>146</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="E46" s="8">
         <v>38</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>152</v>
       </c>
       <c r="F46" s="8">
         <v>34</v>
@@ -4902,7 +4902,7 @@
         <v>1400</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I46" s="8" t="b">
         <v>0</v>
@@ -4947,19 +4947,19 @@
     </row>
     <row r="47" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D47" s="8">
+        <v>149</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="8">
         <v>82</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>24</v>
       </c>
       <c r="F47" s="8">
         <v>36</v>
@@ -4968,7 +4968,7 @@
         <v>2300</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I47" s="8" t="b">
         <v>0</v>
@@ -5013,19 +5013,19 @@
     </row>
     <row r="48" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>55</v>
+        <v>151</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="F48" s="8">
         <v>92</v>
@@ -5034,7 +5034,7 @@
         <v>3000</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I48" s="8" t="b">
         <v>0</v>
@@ -5079,19 +5079,19 @@
     </row>
     <row r="49" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D49" s="8">
+        <v>154</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E49" s="8">
         <v>26</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>82</v>
       </c>
       <c r="F49" s="8">
         <v>289</v>
@@ -5100,7 +5100,7 @@
         <v>8700</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I49" s="8" t="b">
         <v>0</v>
@@ -5145,19 +5145,19 @@
     </row>
     <row r="50" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="D50" s="8">
+        <v>156</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="E50" s="8">
         <v>52</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>162</v>
       </c>
       <c r="F50" s="8">
         <v>32</v>
@@ -5166,7 +5166,7 @@
         <v>1100</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I50" s="8" t="b">
         <v>1</v>
@@ -5211,19 +5211,19 @@
     </row>
     <row r="51" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="D51" s="8">
+        <v>159</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E51" s="8">
         <v>53</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>80</v>
       </c>
       <c r="F51" s="8">
         <v>631</v>
@@ -5232,7 +5232,7 @@
         <v>19700</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I51" s="8" t="b">
         <v>0</v>
@@ -5277,19 +5277,19 @@
     </row>
     <row r="52" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D52" s="8">
+        <v>161</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E52" s="8">
         <v>16</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>167</v>
       </c>
       <c r="F52" s="8">
         <v>28</v>
@@ -5298,7 +5298,7 @@
         <v>671</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I52" s="8" t="b">
         <v>1</v>
@@ -5343,14 +5343,14 @@
     </row>
     <row r="53" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="18"/>
       <c r="F53" s="18"/>
       <c r="G53" s="20"/>
       <c r="H53" s="18"/>
@@ -5371,19 +5371,19 @@
     </row>
     <row r="54" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D54" s="8">
+        <v>164</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="E54" s="8">
         <v>11</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>170</v>
       </c>
       <c r="F54" s="8">
         <v>86</v>
@@ -5392,7 +5392,7 @@
         <v>3800</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I54" s="8" t="b">
         <v>1</v>
@@ -5437,19 +5437,19 @@
     </row>
     <row r="55" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="D55" s="8">
+        <v>167</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="E55" s="8">
         <v>23</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>173</v>
       </c>
       <c r="F55" s="8">
         <v>67</v>
@@ -5458,7 +5458,7 @@
         <v>2300</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I55" s="8" t="b">
         <v>1</v>
@@ -5503,19 +5503,19 @@
     </row>
     <row r="56" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="D56" s="8">
+        <v>170</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="E56" s="8">
         <v>47</v>
-      </c>
-      <c r="E56" s="15" t="s">
-        <v>176</v>
       </c>
       <c r="F56" s="8">
         <v>140</v>
@@ -5524,7 +5524,7 @@
         <v>3000</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I56" s="8" t="b">
         <v>0</v>
@@ -5569,19 +5569,19 @@
     </row>
     <row r="57" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D57" s="8">
+        <v>173</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E57" s="8">
         <v>13</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>179</v>
       </c>
       <c r="F57" s="8">
         <v>16</v>
@@ -5590,7 +5590,7 @@
         <v>1500</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I57" s="8" t="b">
         <v>1</v>
@@ -5632,24 +5632,24 @@
         <v>0</v>
       </c>
       <c r="V57" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="58" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="D58" s="8">
+        <v>177</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" s="8">
         <v>71</v>
-      </c>
-      <c r="E58" s="15" t="s">
-        <v>24</v>
       </c>
       <c r="F58" s="8">
         <v>125</v>
@@ -5658,7 +5658,7 @@
         <v>1700</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I58" s="8" t="b">
         <v>1</v>
@@ -5703,14 +5703,14 @@
     </row>
     <row r="59" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="18"/>
       <c r="F59" s="18"/>
       <c r="G59" s="20"/>
       <c r="H59" s="18"/>
@@ -5731,19 +5731,19 @@
     </row>
     <row r="60" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="D60" s="8">
+        <v>179</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="E60" s="8">
         <v>12</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>185</v>
       </c>
       <c r="F60" s="8">
         <v>80</v>
@@ -5752,7 +5752,7 @@
         <v>2500</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I60" s="8" t="b">
         <v>0</v>
@@ -5797,19 +5797,19 @@
     </row>
     <row r="61" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="D61" s="8">
+        <v>182</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E61" s="8">
         <v>41</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>55</v>
       </c>
       <c r="F61" s="8">
         <v>82</v>
@@ -5818,7 +5818,7 @@
         <v>3500</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I61" s="8" t="b">
         <v>0</v>
@@ -5863,19 +5863,19 @@
     </row>
     <row r="62" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="D62" s="8">
+        <v>184</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="E62" s="8">
         <v>26</v>
-      </c>
-      <c r="E62" s="15" t="s">
-        <v>190</v>
       </c>
       <c r="F62" s="8">
         <v>28</v>
@@ -5884,7 +5884,7 @@
         <v>1800</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I62" s="8" t="b">
         <v>1</v>
@@ -5926,19 +5926,19 @@
         <v>1</v>
       </c>
       <c r="V62" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="63" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="17" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="18"/>
       <c r="F63" s="18"/>
       <c r="G63" s="20"/>
       <c r="H63" s="18"/>
@@ -5959,14 +5959,14 @@
     </row>
     <row r="64" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="17" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="18"/>
       <c r="F64" s="18"/>
       <c r="G64" s="20"/>
       <c r="H64" s="18"/>
@@ -5987,14 +5987,14 @@
     </row>
     <row r="65" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="17" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="18"/>
       <c r="F65" s="18"/>
       <c r="G65" s="20"/>
       <c r="H65" s="18"/>
@@ -6043,7 +6043,7 @@
     <row r="93" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V5 V29 V25 U41:V41 V61:V95 I42:U725 I2:T41 U2:U40" xr:uid="{466E2084-0B49-478C-B960-E259A7C01462}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V5 V29 V25 U41:V41 I2:T41 U2:U40 I42:U65 I66:U725 V61:V65 V66:V95" xr:uid="{466E2084-0B49-478C-B960-E259A7C01462}">
       <formula1>boolean_types</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H65" xr:uid="{355FE2B4-521A-4CB6-8F04-9750B8570307}">
@@ -6082,15 +6082,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -6098,7 +6098,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B3" t="b">
         <v>0</v>
@@ -6106,27 +6106,27 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/tools/tool_comparison.xlsx
+++ b/tools/tool_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\hedderich\repos\MLOps\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF27F2A0-7A06-4BCC-91B9-EFFE780EE751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26DFEBA-016B-4812-87C9-4CCA02FE551E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="437">
   <si>
     <t>Name</t>
   </si>
@@ -1313,6 +1313,24 @@
   </si>
   <si>
     <t>https://github.com/online-ml/river</t>
+  </si>
+  <si>
+    <t>https://github.com/whylabs/whylogs</t>
+  </si>
+  <si>
+    <t>whylogs</t>
+  </si>
+  <si>
+    <t>https://github.com/great-expectations/great_expectations</t>
+  </si>
+  <si>
+    <t>Great Expectations</t>
+  </si>
+  <si>
+    <t>https://github.com/PAIR-code/facets</t>
+  </si>
+  <si>
+    <t>facets</t>
   </si>
 </sst>
 </file>
@@ -1680,14 +1698,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y66"/>
+  <dimension ref="A1:Y69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="1" max="1" width="18.84375" customWidth="1"/>
     <col min="2" max="2" width="44.3046875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.4609375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.69140625" bestFit="1" customWidth="1"/>
@@ -6273,6 +6292,30 @@
         <v>430</v>
       </c>
     </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>432</v>
+      </c>
+      <c r="B67" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>434</v>
+      </c>
+      <c r="B68" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>436</v>
+      </c>
+      <c r="B69" t="s">
+        <v>435</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tools/tool_comparison.xlsx
+++ b/tools/tool_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\hedderich\repos\MLOps\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26DFEBA-016B-4812-87C9-4CCA02FE551E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C580F8-DD52-4FF1-894D-CC0F81085684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="443">
   <si>
     <t>Name</t>
   </si>
@@ -61,15 +61,9 @@
     <t>Model Registry</t>
   </si>
   <si>
-    <t>Model Metadata</t>
-  </si>
-  <si>
     <t>Model Training</t>
   </si>
   <si>
-    <t>Artifact Metadata</t>
-  </si>
-  <si>
     <t>Hyperparameter Tuning</t>
   </si>
   <si>
@@ -493,9 +487,6 @@
     <t>57</t>
   </si>
   <si>
-    <t>Git Large File Storage (LFS)</t>
-  </si>
-  <si>
     <t>https://github.com/git-lfs/git-lfs</t>
   </si>
   <si>
@@ -766,24 +757,6 @@
     <t>Git-like capabilities for your object storage</t>
   </si>
   <si>
-    <t>Marquez</t>
-  </si>
-  <si>
-    <t>https://github.com/MarquezProject/marquez</t>
-  </si>
-  <si>
-    <t>0.22.0</t>
-  </si>
-  <si>
-    <t>marquez-airflow-0.3.9</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>Collect, aggregate, and visualize a data ecosystem's metadata</t>
-  </si>
-  <si>
     <t>Metaflow</t>
   </si>
   <si>
@@ -844,9 +817,6 @@
     <t>173</t>
   </si>
   <si>
-    <t>Mlflow</t>
-  </si>
-  <si>
     <t>https://github.com/mlflow/mlflow</t>
   </si>
   <si>
@@ -1331,6 +1301,54 @@
   </si>
   <si>
     <t>facets</t>
+  </si>
+  <si>
+    <t>MLFlow</t>
+  </si>
+  <si>
+    <t>Data Versioning</t>
+  </si>
+  <si>
+    <t>Git Large File Storage (Git LFS)</t>
+  </si>
+  <si>
+    <t>relies on GitHub actions and GitLab CI</t>
+  </si>
+  <si>
+    <t>Label Studio</t>
+  </si>
+  <si>
+    <t>https://github.com/heartexlabs/label-studio</t>
+  </si>
+  <si>
+    <t>https://github.com/doccano/doccano</t>
+  </si>
+  <si>
+    <t>doccano</t>
+  </si>
+  <si>
+    <t>https://github.com/qri-io/qri</t>
+  </si>
+  <si>
+    <t>Qri</t>
+  </si>
+  <si>
+    <t>https://github.com/tensorflow/tensorboard</t>
+  </si>
+  <si>
+    <t>Tensorboard</t>
+  </si>
+  <si>
+    <t>https://github.com/openvinotoolkit/openvino</t>
+  </si>
+  <si>
+    <t>OpenVINO</t>
+  </si>
+  <si>
+    <t>Kserve</t>
+  </si>
+  <si>
+    <t>https://github.com/kserve/kserve</t>
   </si>
 </sst>
 </file>
@@ -1340,7 +1358,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1353,6 +1371,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1387,17 +1413,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1698,23 +1727,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y69"/>
+  <dimension ref="A1:X75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.84375" customWidth="1"/>
+    <col min="1" max="1" width="31.3828125" customWidth="1"/>
     <col min="2" max="2" width="44.3046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.4609375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.3828125" customWidth="1"/>
+    <col min="5" max="5" width="15.4609375" customWidth="1"/>
     <col min="6" max="6" width="12.69140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.3046875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1758,143 +1789,137 @@
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="B2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2">
         <v>44705</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H2">
         <v>2488</v>
       </c>
       <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W2" t="s">
         <v>30</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>31</v>
       </c>
-      <c r="X2" t="s">
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
         <v>32</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="B3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2">
         <v>44705</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H3">
         <v>2439</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -1918,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -1932,43 +1957,40 @@
       <c r="U3">
         <v>0</v>
       </c>
-      <c r="V3">
-        <v>0</v>
+      <c r="W3" t="s">
+        <v>37</v>
       </c>
       <c r="X3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>39</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="B4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
         <v>41</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>42</v>
-      </c>
-      <c r="C4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" t="s">
-        <v>44</v>
       </c>
       <c r="E4" s="2">
         <v>44705</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H4">
         <v>26028</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -2004,30 +2026,27 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="W4" t="s">
+        <v>45</v>
       </c>
       <c r="X4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>47</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="B5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
         <v>49</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>50</v>
-      </c>
-      <c r="C5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" t="s">
-        <v>52</v>
       </c>
       <c r="E5" s="2">
         <v>44705</v>
@@ -2036,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H5">
         <v>32935</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -2078,45 +2097,42 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="W5" t="s">
+        <v>52</v>
       </c>
       <c r="X5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>54</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="B6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
         <v>56</v>
       </c>
-      <c r="B6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" t="s">
-        <v>58</v>
-      </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E6" s="2">
         <v>44705</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H6">
         <v>11085</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -2131,10 +2147,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -2152,45 +2168,42 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="W6" t="s">
+        <v>59</v>
       </c>
       <c r="X6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>61</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="B7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+      <c r="C7" t="s">
         <v>63</v>
       </c>
-      <c r="B7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" t="s">
-        <v>65</v>
-      </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E7" s="2">
         <v>44705</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H7">
         <v>3494</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -2220,36 +2233,33 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
-      <c r="V7">
-        <v>0</v>
+      <c r="W7" t="s">
+        <v>66</v>
       </c>
       <c r="X7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>68</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="B8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
         <v>70</v>
-      </c>
-      <c r="B8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" t="s">
-        <v>72</v>
       </c>
       <c r="E8" s="2">
         <v>44701</v>
@@ -2258,87 +2268,84 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H8">
         <v>337</v>
       </c>
       <c r="I8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="W8" t="s">
+        <v>73</v>
+      </c>
+      <c r="X8" t="s">
         <v>74</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>1</v>
-      </c>
-      <c r="X8" t="s">
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>75</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="B9" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+      <c r="C9" t="s">
         <v>77</v>
       </c>
-      <c r="B9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" t="s">
-        <v>79</v>
-      </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2">
         <v>44701</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H9">
         <v>212</v>
       </c>
       <c r="I9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -2376,43 +2383,40 @@
       <c r="U9">
         <v>0</v>
       </c>
-      <c r="V9">
-        <v>0</v>
+      <c r="W9" t="s">
+        <v>80</v>
       </c>
       <c r="X9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>82</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="B10" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+      <c r="C10" t="s">
         <v>84</v>
       </c>
-      <c r="B10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" t="s">
-        <v>86</v>
-      </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E10" s="2">
         <v>44705</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H10">
         <v>3186</v>
       </c>
       <c r="I10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -2433,60 +2437,57 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10">
         <v>1</v>
       </c>
-      <c r="V10">
-        <v>1</v>
+      <c r="W10" t="s">
+        <v>86</v>
       </c>
       <c r="X10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>88</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="B11" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+      <c r="C11" t="s">
         <v>90</v>
       </c>
-      <c r="B11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" t="s">
-        <v>92</v>
-      </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E11" s="2">
         <v>44705</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H11">
         <v>3194</v>
       </c>
       <c r="I11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2504,19 +2505,19 @@
         <v>1</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11">
         <v>1</v>
@@ -2524,43 +2525,43 @@
       <c r="U11">
         <v>1</v>
       </c>
-      <c r="V11">
-        <v>1</v>
+      <c r="V11" t="s">
+        <v>430</v>
+      </c>
+      <c r="W11" t="s">
+        <v>92</v>
       </c>
       <c r="X11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" t="s">
         <v>94</v>
       </c>
-      <c r="Y11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+      <c r="C12" t="s">
         <v>95</v>
       </c>
-      <c r="B12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12" t="s">
-        <v>97</v>
-      </c>
       <c r="D12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E12" s="2">
         <v>44704</v>
       </c>
       <c r="F12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H12">
         <v>7748</v>
       </c>
       <c r="I12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -2590,54 +2591,51 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12">
         <v>0</v>
       </c>
-      <c r="V12">
-        <v>0</v>
+      <c r="V12" t="s">
+        <v>98</v>
       </c>
       <c r="W12" t="s">
+        <v>99</v>
+      </c>
+      <c r="X12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>100</v>
       </c>
-      <c r="X12" t="s">
+      <c r="B13" t="s">
         <v>101</v>
       </c>
-      <c r="Y12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+      <c r="C13" t="s">
         <v>102</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>103</v>
-      </c>
-      <c r="C13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" t="s">
-        <v>105</v>
       </c>
       <c r="E13" s="2">
         <v>44705</v>
       </c>
       <c r="F13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H13">
         <v>4759</v>
       </c>
       <c r="I13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -2673,33 +2671,30 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="V13" t="s">
+        <v>106</v>
       </c>
       <c r="W13" t="s">
+        <v>107</v>
+      </c>
+      <c r="X13" t="s">
         <v>108</v>
       </c>
-      <c r="X13" t="s">
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>109</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="B14" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
         <v>111</v>
-      </c>
-      <c r="B14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" t="s">
-        <v>113</v>
       </c>
       <c r="E14" s="2">
         <v>44705</v>
@@ -2708,87 +2703,84 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H14">
         <v>9906</v>
       </c>
       <c r="I14" t="s">
+        <v>113</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>114</v>
+      </c>
+      <c r="X14" t="s">
         <v>115</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="X14" t="s">
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
         <v>116</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="B15" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
+      <c r="C15" t="s">
         <v>118</v>
       </c>
-      <c r="B15" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" t="s">
-        <v>120</v>
-      </c>
       <c r="D15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E15" s="2">
         <v>44705</v>
       </c>
       <c r="F15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H15">
         <v>9741</v>
       </c>
       <c r="I15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -2803,19 +2795,19 @@
         <v>1</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -2824,122 +2816,116 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="W15" t="s">
+        <v>121</v>
       </c>
       <c r="X15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
         <v>123</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="B16" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
+      <c r="C16" t="s">
         <v>125</v>
       </c>
-      <c r="B16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" t="s">
-        <v>127</v>
-      </c>
       <c r="D16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E16" s="2">
         <v>44705</v>
       </c>
       <c r="F16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H16">
         <v>6784</v>
       </c>
       <c r="I16" t="s">
+        <v>127</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16" t="s">
+        <v>29</v>
+      </c>
+      <c r="W16" t="s">
+        <v>128</v>
+      </c>
+      <c r="X16" t="s">
         <v>129</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16" t="s">
-        <v>31</v>
-      </c>
-      <c r="X16" t="s">
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
         <v>130</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="B17" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
+      <c r="C17" t="s">
         <v>132</v>
       </c>
-      <c r="B17" t="s">
-        <v>133</v>
-      </c>
-      <c r="C17" t="s">
-        <v>134</v>
-      </c>
       <c r="D17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E17" s="2">
         <v>44705</v>
       </c>
       <c r="F17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H17">
         <v>4369</v>
       </c>
       <c r="I17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -2951,16 +2937,16 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -2977,43 +2963,40 @@
       <c r="U17">
         <v>0</v>
       </c>
-      <c r="V17">
-        <v>0</v>
+      <c r="W17" t="s">
+        <v>134</v>
       </c>
       <c r="X17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" t="s">
         <v>136</v>
       </c>
-      <c r="Y17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
+      <c r="C18" t="s">
         <v>137</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
         <v>138</v>
-      </c>
-      <c r="C18" t="s">
-        <v>139</v>
-      </c>
-      <c r="D18" t="s">
-        <v>140</v>
       </c>
       <c r="E18" s="2">
         <v>44705</v>
       </c>
       <c r="F18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H18">
         <v>10659</v>
       </c>
       <c r="I18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -3051,43 +3034,40 @@
       <c r="U18">
         <v>0</v>
       </c>
-      <c r="V18">
-        <v>0</v>
+      <c r="W18" t="s">
+        <v>141</v>
       </c>
       <c r="X18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
         <v>143</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="B19" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
+      <c r="C19" t="s">
         <v>145</v>
       </c>
-      <c r="B19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C19" t="s">
-        <v>147</v>
-      </c>
       <c r="D19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E19" s="2">
         <v>44705</v>
       </c>
       <c r="F19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H19">
         <v>3201</v>
       </c>
       <c r="I19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -3125,43 +3105,40 @@
       <c r="U19">
         <v>0</v>
       </c>
-      <c r="V19">
-        <v>0</v>
+      <c r="W19" t="s">
+        <v>148</v>
       </c>
       <c r="X19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20" t="s">
         <v>150</v>
       </c>
-      <c r="Y19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
+      <c r="C20" t="s">
         <v>151</v>
       </c>
-      <c r="B20" t="s">
-        <v>152</v>
-      </c>
-      <c r="C20" t="s">
-        <v>153</v>
-      </c>
       <c r="D20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E20" s="2">
         <v>44705</v>
       </c>
       <c r="F20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H20">
         <v>2321</v>
       </c>
       <c r="I20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -3197,119 +3174,113 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="W20" t="s">
+        <v>153</v>
       </c>
       <c r="X20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>429</v>
+      </c>
+      <c r="B21" t="s">
         <v>155</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="C21" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B21" t="s">
-        <v>158</v>
-      </c>
-      <c r="C21" t="s">
-        <v>159</v>
-      </c>
       <c r="D21" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E21" s="2">
         <v>44705</v>
       </c>
       <c r="F21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H21">
         <v>10327</v>
       </c>
       <c r="I21" t="s">
+        <v>157</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>158</v>
+      </c>
+      <c r="X21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
         <v>160</v>
       </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>1</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="X21" t="s">
+      <c r="B22" t="s">
         <v>161</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="C22" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>163</v>
-      </c>
-      <c r="B22" t="s">
-        <v>164</v>
-      </c>
-      <c r="C22" t="s">
-        <v>165</v>
-      </c>
       <c r="D22" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E22" s="2">
         <v>44704</v>
       </c>
       <c r="F22" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G22" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H22">
         <v>703</v>
       </c>
       <c r="I22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -3330,13 +3301,13 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
         <v>1</v>
       </c>
       <c r="R22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -3345,30 +3316,27 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="W22" t="s">
+        <v>165</v>
       </c>
       <c r="X22" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>170</v>
-      </c>
-      <c r="B23" t="s">
-        <v>171</v>
-      </c>
-      <c r="C23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" t="s">
-        <v>172</v>
       </c>
       <c r="E23" s="2">
         <v>44705</v>
@@ -3377,13 +3345,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H23">
         <v>5827</v>
       </c>
       <c r="I23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -3398,10 +3366,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -3419,45 +3387,42 @@
         <v>0</v>
       </c>
       <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="W23" t="s">
+        <v>171</v>
       </c>
       <c r="X23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>173</v>
+      </c>
+      <c r="B24" t="s">
         <v>174</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="C24" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>176</v>
-      </c>
-      <c r="B24" t="s">
-        <v>177</v>
-      </c>
-      <c r="C24" t="s">
-        <v>178</v>
-      </c>
       <c r="D24" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E24" s="2">
         <v>44705</v>
       </c>
       <c r="F24" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G24" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H24">
         <v>712</v>
       </c>
       <c r="I24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -3495,43 +3460,40 @@
       <c r="U24">
         <v>0</v>
       </c>
-      <c r="V24">
-        <v>0</v>
+      <c r="W24" t="s">
+        <v>177</v>
       </c>
       <c r="X24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>179</v>
+      </c>
+      <c r="B25" t="s">
         <v>180</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="C25" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>182</v>
-      </c>
-      <c r="B25" t="s">
-        <v>183</v>
-      </c>
-      <c r="C25" t="s">
-        <v>184</v>
-      </c>
       <c r="D25" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E25" s="2">
         <v>44705</v>
       </c>
       <c r="F25" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G25" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H25">
         <v>12444</v>
       </c>
       <c r="I25" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -3546,10 +3508,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -3569,43 +3531,40 @@
       <c r="U25">
         <v>0</v>
       </c>
-      <c r="V25">
-        <v>0</v>
+      <c r="W25" t="s">
+        <v>184</v>
       </c>
       <c r="X25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>186</v>
+      </c>
+      <c r="B26" t="s">
         <v>187</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="C26" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>189</v>
-      </c>
-      <c r="B26" t="s">
-        <v>190</v>
-      </c>
-      <c r="C26" t="s">
-        <v>191</v>
-      </c>
       <c r="D26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E26" s="2">
         <v>44679</v>
       </c>
       <c r="F26" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G26" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H26">
         <v>255</v>
       </c>
       <c r="I26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -3620,7 +3579,7 @@
         <v>1</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26">
         <v>0</v>
@@ -3635,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26">
         <v>1</v>
@@ -3643,28 +3602,25 @@
       <c r="U26">
         <v>1</v>
       </c>
-      <c r="V26">
-        <v>1</v>
+      <c r="W26" t="s">
+        <v>191</v>
       </c>
       <c r="X26" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>192</v>
+      </c>
+      <c r="B27" t="s">
+        <v>193</v>
+      </c>
+      <c r="C27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" t="s">
         <v>194</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>195</v>
-      </c>
-      <c r="B27" t="s">
-        <v>196</v>
-      </c>
-      <c r="C27" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" t="s">
-        <v>197</v>
       </c>
       <c r="E27" s="2">
         <v>44705</v>
@@ -3673,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H27">
         <v>6225</v>
       </c>
       <c r="I27" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -3700,10 +3656,10 @@
         <v>0</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27">
         <v>0</v>
@@ -3717,28 +3673,25 @@
       <c r="U27">
         <v>0</v>
       </c>
-      <c r="V27">
-        <v>0</v>
+      <c r="W27" t="s">
+        <v>196</v>
       </c>
       <c r="X27" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>198</v>
+      </c>
+      <c r="B28" t="s">
         <v>199</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" t="s">
         <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>201</v>
-      </c>
-      <c r="B28" t="s">
-        <v>202</v>
-      </c>
-      <c r="C28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" t="s">
-        <v>203</v>
       </c>
       <c r="E28" s="2">
         <v>44704</v>
@@ -3747,122 +3700,119 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H28">
         <v>762</v>
       </c>
       <c r="I28" t="s">
+        <v>202</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>203</v>
+      </c>
+      <c r="X28" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
         <v>205</v>
       </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="X28" t="s">
+      <c r="B29" t="s">
         <v>206</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="C29" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>208</v>
-      </c>
-      <c r="B29" t="s">
-        <v>209</v>
-      </c>
-      <c r="C29" t="s">
-        <v>210</v>
-      </c>
       <c r="D29" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E29" s="2">
         <v>44705</v>
       </c>
       <c r="F29" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G29" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H29">
         <v>1833</v>
       </c>
       <c r="I29" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="W29" t="s">
+        <v>210</v>
       </c>
       <c r="X29" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>211</v>
+      </c>
+      <c r="B30" t="s">
+        <v>212</v>
+      </c>
+      <c r="C30" t="s">
         <v>213</v>
       </c>
-      <c r="Y29" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>214</v>
-      </c>
-      <c r="B30" t="s">
-        <v>215</v>
-      </c>
-      <c r="C30" t="s">
-        <v>216</v>
-      </c>
       <c r="D30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E30" s="2">
         <v>44705</v>
       </c>
       <c r="F30" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G30" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H30">
         <v>9073</v>
       </c>
       <c r="I30" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -3889,10 +3839,10 @@
         <v>0</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T30">
         <v>0</v>
@@ -3900,43 +3850,40 @@
       <c r="U30">
         <v>0</v>
       </c>
-      <c r="V30">
-        <v>0</v>
+      <c r="W30" t="s">
+        <v>216</v>
       </c>
       <c r="X30" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>218</v>
+      </c>
+      <c r="B31" t="s">
         <v>219</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="C31" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>221</v>
-      </c>
-      <c r="B31" t="s">
-        <v>222</v>
-      </c>
-      <c r="C31" t="s">
-        <v>223</v>
-      </c>
       <c r="D31" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E31" s="2">
         <v>44704</v>
       </c>
       <c r="F31" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G31" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H31">
         <v>1178</v>
       </c>
       <c r="I31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -3957,10 +3904,10 @@
         <v>0</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31">
         <v>0</v>
@@ -3974,43 +3921,40 @@
       <c r="U31">
         <v>0</v>
       </c>
-      <c r="V31">
-        <v>0</v>
+      <c r="W31" t="s">
+        <v>222</v>
       </c>
       <c r="X31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>223</v>
+      </c>
+      <c r="B32" t="s">
+        <v>224</v>
+      </c>
+      <c r="C32" t="s">
         <v>225</v>
       </c>
-      <c r="Y31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>226</v>
-      </c>
-      <c r="B32" t="s">
-        <v>227</v>
-      </c>
-      <c r="C32" t="s">
-        <v>228</v>
-      </c>
       <c r="D32" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E32" s="2">
         <v>44705</v>
       </c>
       <c r="F32" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G32" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H32">
         <v>7230</v>
       </c>
       <c r="I32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -4034,10 +3978,10 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S32">
         <v>0</v>
@@ -4046,45 +3990,42 @@
         <v>0</v>
       </c>
       <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="W32" t="s">
+        <v>228</v>
       </c>
       <c r="X32" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>229</v>
+      </c>
+      <c r="B33" t="s">
+        <v>230</v>
+      </c>
+      <c r="C33" t="s">
         <v>231</v>
       </c>
-      <c r="Y32" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>232</v>
-      </c>
-      <c r="B33" t="s">
-        <v>233</v>
-      </c>
-      <c r="C33" t="s">
-        <v>234</v>
-      </c>
       <c r="D33" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E33" s="2">
         <v>44705</v>
       </c>
       <c r="F33" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H33">
         <v>2541</v>
       </c>
       <c r="I33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -4105,10 +4046,10 @@
         <v>0</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33">
         <v>0</v>
@@ -4122,43 +4063,40 @@
       <c r="U33">
         <v>0</v>
       </c>
-      <c r="V33">
-        <v>0</v>
+      <c r="W33" t="s">
+        <v>233</v>
       </c>
       <c r="X33" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>234</v>
+      </c>
+      <c r="B34" t="s">
+        <v>235</v>
+      </c>
+      <c r="C34" t="s">
         <v>236</v>
       </c>
-      <c r="Y33" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>237</v>
-      </c>
-      <c r="B34" t="s">
-        <v>238</v>
-      </c>
-      <c r="C34" t="s">
-        <v>239</v>
-      </c>
       <c r="D34" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E34" s="2">
         <v>44705</v>
       </c>
       <c r="F34" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G34" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H34">
         <v>11510</v>
       </c>
       <c r="I34" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -4170,69 +4108,66 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34">
         <v>1</v>
       </c>
       <c r="O34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S34">
         <v>1</v>
       </c>
       <c r="T34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="V34">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="W34" t="s">
+        <v>239</v>
       </c>
       <c r="X34" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>241</v>
+      </c>
+      <c r="B35" t="s">
         <v>242</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="C35" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>244</v>
-      </c>
-      <c r="B35" t="s">
-        <v>245</v>
-      </c>
-      <c r="C35" t="s">
-        <v>246</v>
-      </c>
       <c r="D35" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E35" s="2">
         <v>44705</v>
       </c>
       <c r="F35" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H35">
         <v>2488</v>
       </c>
       <c r="I35" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -4250,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
         <v>0</v>
@@ -4270,815 +4205,782 @@
       <c r="U35">
         <v>0</v>
       </c>
-      <c r="V35">
-        <v>0</v>
+      <c r="W35" t="s">
+        <v>244</v>
       </c>
       <c r="X35" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>245</v>
+      </c>
+      <c r="B36" t="s">
+        <v>246</v>
+      </c>
+      <c r="C36" t="s">
         <v>247</v>
       </c>
-      <c r="Y35" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
+      <c r="D36" t="s">
         <v>248</v>
-      </c>
-      <c r="B36" t="s">
-        <v>249</v>
-      </c>
-      <c r="C36" t="s">
-        <v>250</v>
-      </c>
-      <c r="D36" t="s">
-        <v>251</v>
       </c>
       <c r="E36" s="2">
         <v>44705</v>
       </c>
       <c r="F36" t="s">
+        <v>249</v>
+      </c>
+      <c r="G36" t="s">
+        <v>74</v>
+      </c>
+      <c r="H36">
+        <v>5634</v>
+      </c>
+      <c r="I36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>1</v>
+      </c>
+      <c r="V36" t="s">
+        <v>98</v>
+      </c>
+      <c r="W36" t="s">
+        <v>250</v>
+      </c>
+      <c r="X36" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>251</v>
+      </c>
+      <c r="B37" t="s">
         <v>252</v>
       </c>
-      <c r="G36" t="s">
-        <v>188</v>
-      </c>
-      <c r="H36">
-        <v>1066</v>
-      </c>
-      <c r="I36" t="s">
-        <v>30</v>
-      </c>
-      <c r="J36">
-        <v>1</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <v>1</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
-      <c r="T36">
-        <v>0</v>
-      </c>
-      <c r="U36">
-        <v>0</v>
-      </c>
-      <c r="V36">
-        <v>0</v>
-      </c>
-      <c r="X36" t="s">
+      <c r="C37" t="s">
         <v>253</v>
       </c>
-      <c r="Y36" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>254</v>
-      </c>
-      <c r="B37" t="s">
-        <v>255</v>
-      </c>
-      <c r="C37" t="s">
-        <v>256</v>
-      </c>
       <c r="D37" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E37" s="2">
         <v>44705</v>
       </c>
       <c r="F37" t="s">
+        <v>254</v>
+      </c>
+      <c r="G37" t="s">
+        <v>254</v>
+      </c>
+      <c r="H37">
+        <v>6944</v>
+      </c>
+      <c r="I37" t="s">
+        <v>255</v>
+      </c>
+      <c r="W37" t="s">
+        <v>256</v>
+      </c>
+      <c r="X37" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
         <v>258</v>
       </c>
-      <c r="G37" t="s">
-        <v>76</v>
-      </c>
-      <c r="H37">
-        <v>5634</v>
-      </c>
-      <c r="I37" t="s">
-        <v>30</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <v>1</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-      <c r="T37">
-        <v>0</v>
-      </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
-      <c r="V37">
-        <v>1</v>
-      </c>
-      <c r="W37" t="s">
-        <v>100</v>
-      </c>
-      <c r="X37" t="s">
+      <c r="B38" t="s">
         <v>259</v>
       </c>
-      <c r="Y37" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
+      <c r="C38" t="s">
         <v>260</v>
       </c>
-      <c r="B38" t="s">
-        <v>261</v>
-      </c>
-      <c r="C38" t="s">
-        <v>262</v>
-      </c>
       <c r="D38" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E38" s="2">
         <v>44705</v>
       </c>
       <c r="F38" t="s">
+        <v>261</v>
+      </c>
+      <c r="G38" t="s">
+        <v>262</v>
+      </c>
+      <c r="H38">
+        <v>165099</v>
+      </c>
+      <c r="I38" t="s">
+        <v>28</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
         <v>263</v>
       </c>
-      <c r="G38" t="s">
-        <v>263</v>
-      </c>
-      <c r="H38">
-        <v>6944</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="X38" t="s">
         <v>264</v>
       </c>
-      <c r="X38" t="s">
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>427</v>
+      </c>
+      <c r="B39" t="s">
         <v>265</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="C39" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
-        <v>267</v>
-      </c>
-      <c r="B39" t="s">
-        <v>268</v>
-      </c>
-      <c r="C39" t="s">
-        <v>269</v>
-      </c>
       <c r="D39" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E39" s="2">
         <v>44705</v>
       </c>
       <c r="F39" t="s">
+        <v>81</v>
+      </c>
+      <c r="G39" t="s">
+        <v>267</v>
+      </c>
+      <c r="H39">
+        <v>11886</v>
+      </c>
+      <c r="I39" t="s">
+        <v>28</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39" t="s">
+        <v>268</v>
+      </c>
+      <c r="W39" t="s">
+        <v>269</v>
+      </c>
+      <c r="X39" t="s">
         <v>270</v>
       </c>
-      <c r="G39" t="s">
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
         <v>271</v>
       </c>
-      <c r="H39">
-        <v>165099</v>
-      </c>
-      <c r="I39" t="s">
-        <v>30</v>
-      </c>
-      <c r="J39">
-        <v>1</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-      <c r="T39">
-        <v>0</v>
-      </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
-      <c r="X39" t="s">
+      <c r="B40" t="s">
         <v>272</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="C40" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
+      <c r="D40" t="s">
         <v>274</v>
-      </c>
-      <c r="B40" t="s">
-        <v>275</v>
-      </c>
-      <c r="C40" t="s">
-        <v>276</v>
-      </c>
-      <c r="D40" t="s">
-        <v>276</v>
       </c>
       <c r="E40" s="2">
         <v>44705</v>
       </c>
       <c r="F40" t="s">
-        <v>83</v>
+        <v>275</v>
       </c>
       <c r="G40" t="s">
+        <v>154</v>
+      </c>
+      <c r="H40">
+        <v>639</v>
+      </c>
+      <c r="I40" t="s">
+        <v>157</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>1</v>
+      </c>
+      <c r="T40">
+        <v>1</v>
+      </c>
+      <c r="U40">
+        <v>1</v>
+      </c>
+      <c r="W40" t="s">
+        <v>276</v>
+      </c>
+      <c r="X40" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
         <v>277</v>
       </c>
-      <c r="H40">
-        <v>11886</v>
-      </c>
-      <c r="I40" t="s">
-        <v>30</v>
-      </c>
-      <c r="J40">
-        <v>1</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>1</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40">
-        <v>1</v>
-      </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-      <c r="R40">
-        <v>1</v>
-      </c>
-      <c r="S40">
-        <v>0</v>
-      </c>
-      <c r="T40">
-        <v>0</v>
-      </c>
-      <c r="U40">
-        <v>0</v>
-      </c>
-      <c r="V40">
-        <v>0</v>
-      </c>
-      <c r="W40" t="s">
+      <c r="B41" t="s">
         <v>278</v>
       </c>
-      <c r="X40" t="s">
+      <c r="C41" t="s">
         <v>279</v>
       </c>
-      <c r="Y40" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
-        <v>281</v>
-      </c>
-      <c r="B41" t="s">
-        <v>282</v>
-      </c>
-      <c r="C41" t="s">
-        <v>283</v>
-      </c>
       <c r="D41" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E41" s="2">
         <v>44705</v>
       </c>
       <c r="F41" t="s">
+        <v>280</v>
+      </c>
+      <c r="G41" t="s">
+        <v>185</v>
+      </c>
+      <c r="H41">
+        <v>4384</v>
+      </c>
+      <c r="I41" t="s">
+        <v>28</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41" t="s">
+        <v>281</v>
+      </c>
+      <c r="W41" t="s">
+        <v>282</v>
+      </c>
+      <c r="X41" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>284</v>
+      </c>
+      <c r="B42" t="s">
         <v>285</v>
       </c>
-      <c r="G41" t="s">
-        <v>156</v>
-      </c>
-      <c r="H41">
-        <v>639</v>
-      </c>
-      <c r="I41" t="s">
-        <v>160</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>1</v>
-      </c>
-      <c r="M41">
-        <v>1</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>1</v>
-      </c>
-      <c r="P41">
-        <v>1</v>
-      </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
-      <c r="T41">
-        <v>1</v>
-      </c>
-      <c r="U41">
-        <v>1</v>
-      </c>
-      <c r="V41">
-        <v>1</v>
-      </c>
-      <c r="X41" t="s">
+      <c r="C42" t="s">
         <v>286</v>
       </c>
-      <c r="Y41" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
-        <v>287</v>
-      </c>
-      <c r="B42" t="s">
-        <v>288</v>
-      </c>
-      <c r="C42" t="s">
-        <v>289</v>
-      </c>
       <c r="D42" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E42" s="2">
         <v>44705</v>
       </c>
       <c r="F42" t="s">
+        <v>287</v>
+      </c>
+      <c r="G42" t="s">
+        <v>288</v>
+      </c>
+      <c r="H42">
+        <v>6439</v>
+      </c>
+      <c r="I42" t="s">
+        <v>127</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>289</v>
+      </c>
+      <c r="X42" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
         <v>290</v>
       </c>
-      <c r="G42" t="s">
-        <v>188</v>
-      </c>
-      <c r="H42">
-        <v>4384</v>
-      </c>
-      <c r="I42" t="s">
-        <v>30</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>1</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
-        <v>0</v>
-      </c>
-      <c r="U42">
-        <v>0</v>
-      </c>
-      <c r="V42">
-        <v>0</v>
-      </c>
-      <c r="W42" t="s">
+      <c r="B43" t="s">
         <v>291</v>
       </c>
-      <c r="X42" t="s">
+      <c r="C43" t="s">
         <v>292</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="D43" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
+      <c r="E43" s="2">
+        <v>44703</v>
+      </c>
+      <c r="F43" t="s">
+        <v>163</v>
+      </c>
+      <c r="G43" t="s">
+        <v>71</v>
+      </c>
+      <c r="H43">
+        <v>2623</v>
+      </c>
+      <c r="I43" t="s">
+        <v>127</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>1</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43" t="s">
         <v>294</v>
       </c>
-      <c r="B43" t="s">
+      <c r="W43" t="s">
         <v>295</v>
       </c>
-      <c r="C43" t="s">
+      <c r="X43" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
         <v>296</v>
       </c>
-      <c r="D43" t="s">
-        <v>296</v>
-      </c>
-      <c r="E43" s="2">
+      <c r="B44" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C44" t="s">
+        <v>298</v>
+      </c>
+      <c r="D44" t="s">
+        <v>299</v>
+      </c>
+      <c r="E44" s="2">
         <v>44705</v>
       </c>
-      <c r="F43" t="s">
-        <v>297</v>
-      </c>
-      <c r="G43" t="s">
-        <v>298</v>
-      </c>
-      <c r="H43">
-        <v>6439</v>
-      </c>
-      <c r="I43" t="s">
-        <v>129</v>
-      </c>
-      <c r="J43">
-        <v>1</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>1</v>
-      </c>
-      <c r="R43">
-        <v>0</v>
-      </c>
-      <c r="S43">
-        <v>0</v>
-      </c>
-      <c r="T43">
-        <v>0</v>
-      </c>
-      <c r="U43">
-        <v>0</v>
-      </c>
-      <c r="V43">
-        <v>0</v>
-      </c>
-      <c r="X43" t="s">
-        <v>299</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
+      <c r="F44" t="s">
         <v>300</v>
       </c>
-      <c r="B44" t="s">
+      <c r="G44" t="s">
         <v>301</v>
       </c>
-      <c r="C44" t="s">
+      <c r="H44">
+        <v>5497</v>
+      </c>
+      <c r="I44" t="s">
+        <v>157</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>1</v>
+      </c>
+      <c r="W44" t="s">
         <v>302</v>
       </c>
-      <c r="D44" t="s">
+      <c r="X44" t="s">
         <v>303</v>
       </c>
-      <c r="E44" s="2">
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>304</v>
+      </c>
+      <c r="B45" t="s">
+        <v>305</v>
+      </c>
+      <c r="C45" t="s">
+        <v>306</v>
+      </c>
+      <c r="D45" t="s">
+        <v>306</v>
+      </c>
+      <c r="E45" s="2">
         <v>44703</v>
       </c>
-      <c r="F44" t="s">
-        <v>166</v>
-      </c>
-      <c r="G44" t="s">
-        <v>73</v>
-      </c>
-      <c r="H44">
-        <v>2623</v>
-      </c>
-      <c r="I44" t="s">
-        <v>129</v>
-      </c>
-      <c r="J44">
-        <v>1</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44">
-        <v>0</v>
-      </c>
-      <c r="S44">
-        <v>0</v>
-      </c>
-      <c r="T44">
-        <v>1</v>
-      </c>
-      <c r="U44">
-        <v>0</v>
-      </c>
-      <c r="V44">
-        <v>0</v>
-      </c>
-      <c r="W44" t="s">
-        <v>304</v>
-      </c>
-      <c r="X44" t="s">
-        <v>305</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
-        <v>306</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="F45" t="s">
         <v>307</v>
       </c>
-      <c r="C45" t="s">
+      <c r="G45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45">
+        <v>1428</v>
+      </c>
+      <c r="I45" t="s">
+        <v>28</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
         <v>308</v>
       </c>
-      <c r="D45" t="s">
+      <c r="X45" t="s">
         <v>309</v>
       </c>
-      <c r="E45" s="2">
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>310</v>
+      </c>
+      <c r="B46" t="s">
+        <v>311</v>
+      </c>
+      <c r="C46" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" t="s">
+        <v>312</v>
+      </c>
+      <c r="E46" s="2">
         <v>44705</v>
       </c>
-      <c r="F45" t="s">
-        <v>310</v>
-      </c>
-      <c r="G45" t="s">
-        <v>311</v>
-      </c>
-      <c r="H45">
-        <v>5497</v>
-      </c>
-      <c r="I45" t="s">
-        <v>160</v>
-      </c>
-      <c r="J45">
-        <v>1</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <v>0</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45">
-        <v>1</v>
-      </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
-      <c r="S45">
-        <v>0</v>
-      </c>
-      <c r="T45">
-        <v>0</v>
-      </c>
-      <c r="U45">
-        <v>0</v>
-      </c>
-      <c r="V45">
-        <v>1</v>
-      </c>
-      <c r="X45" t="s">
-        <v>312</v>
-      </c>
-      <c r="Y45" t="s">
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46" t="s">
+        <v>43</v>
+      </c>
+      <c r="H46">
+        <v>2403</v>
+      </c>
+      <c r="I46" t="s">
+        <v>28</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
+      <c r="X46" t="s">
         <v>314</v>
       </c>
-      <c r="B46" t="s">
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
         <v>315</v>
       </c>
-      <c r="C46" t="s">
+      <c r="B47" t="s">
         <v>316</v>
       </c>
-      <c r="D46" t="s">
-        <v>316</v>
-      </c>
-      <c r="E46" s="2">
-        <v>44703</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="C47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" t="s">
         <v>317</v>
-      </c>
-      <c r="G46" t="s">
-        <v>29</v>
-      </c>
-      <c r="H46">
-        <v>1428</v>
-      </c>
-      <c r="I46" t="s">
-        <v>30</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
-      <c r="O46">
-        <v>1</v>
-      </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="R46">
-        <v>0</v>
-      </c>
-      <c r="S46">
-        <v>0</v>
-      </c>
-      <c r="T46">
-        <v>0</v>
-      </c>
-      <c r="U46">
-        <v>0</v>
-      </c>
-      <c r="V46">
-        <v>0</v>
-      </c>
-      <c r="X46" t="s">
-        <v>318</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
-        <v>320</v>
-      </c>
-      <c r="B47" t="s">
-        <v>321</v>
-      </c>
-      <c r="C47" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47" t="s">
-        <v>322</v>
       </c>
       <c r="E47" s="2">
         <v>44705</v>
@@ -5087,13 +4989,13 @@
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>318</v>
       </c>
       <c r="H47">
-        <v>2403</v>
+        <v>3092</v>
       </c>
       <c r="I47" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -5105,474 +5007,456 @@
         <v>0</v>
       </c>
       <c r="M47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U47">
         <v>0</v>
       </c>
-      <c r="V47">
-        <v>0</v>
+      <c r="W47" t="s">
+        <v>319</v>
       </c>
       <c r="X47" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>321</v>
+      </c>
+      <c r="B48" t="s">
+        <v>322</v>
+      </c>
+      <c r="C48" t="s">
         <v>323</v>
       </c>
-      <c r="Y47" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
-        <v>325</v>
-      </c>
-      <c r="B48" t="s">
-        <v>326</v>
-      </c>
-      <c r="C48" t="s">
-        <v>51</v>
-      </c>
       <c r="D48" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E48" s="2">
         <v>44705</v>
       </c>
-      <c r="F48">
-        <v>0</v>
+      <c r="F48" t="s">
+        <v>324</v>
       </c>
       <c r="G48" t="s">
+        <v>325</v>
+      </c>
+      <c r="H48">
+        <v>9137</v>
+      </c>
+      <c r="I48" t="s">
+        <v>28</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>1</v>
+      </c>
+      <c r="W48" t="s">
+        <v>326</v>
+      </c>
+      <c r="X48" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>327</v>
+      </c>
+      <c r="B49" t="s">
         <v>328</v>
       </c>
-      <c r="H48">
-        <v>3092</v>
-      </c>
-      <c r="I48" t="s">
-        <v>30</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>1</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>1</v>
-      </c>
-      <c r="P48">
-        <v>1</v>
-      </c>
-      <c r="Q48">
-        <v>1</v>
-      </c>
-      <c r="R48">
-        <v>1</v>
-      </c>
-      <c r="S48">
-        <v>1</v>
-      </c>
-      <c r="T48">
-        <v>1</v>
-      </c>
-      <c r="U48">
-        <v>1</v>
-      </c>
-      <c r="V48">
-        <v>0</v>
-      </c>
-      <c r="X48" t="s">
+      <c r="C49" t="s">
         <v>329</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="D49" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
+      <c r="E49" s="2">
+        <v>44699</v>
+      </c>
+      <c r="F49" t="s">
+        <v>74</v>
+      </c>
+      <c r="G49" t="s">
+        <v>307</v>
+      </c>
+      <c r="H49">
+        <v>1153</v>
+      </c>
+      <c r="I49" t="s">
+        <v>28</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
         <v>331</v>
       </c>
-      <c r="B49" t="s">
+      <c r="X49" t="s">
         <v>332</v>
       </c>
-      <c r="C49" t="s">
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
         <v>333</v>
       </c>
-      <c r="D49" t="s">
-        <v>333</v>
-      </c>
-      <c r="E49" s="2">
+      <c r="B50" t="s">
+        <v>334</v>
+      </c>
+      <c r="C50" t="s">
+        <v>335</v>
+      </c>
+      <c r="D50" t="s">
+        <v>335</v>
+      </c>
+      <c r="E50" s="2">
         <v>44705</v>
       </c>
-      <c r="F49" t="s">
-        <v>334</v>
-      </c>
-      <c r="G49" t="s">
-        <v>335</v>
-      </c>
-      <c r="H49">
-        <v>9137</v>
-      </c>
-      <c r="I49" t="s">
-        <v>30</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>0</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
-      <c r="R49">
-        <v>0</v>
-      </c>
-      <c r="S49">
-        <v>0</v>
-      </c>
-      <c r="T49">
-        <v>0</v>
-      </c>
-      <c r="U49">
-        <v>0</v>
-      </c>
-      <c r="V49">
-        <v>1</v>
-      </c>
-      <c r="X49" t="s">
+      <c r="F50" t="s">
+        <v>154</v>
+      </c>
+      <c r="G50" t="s">
         <v>336</v>
       </c>
-      <c r="Y49" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
+      <c r="H50">
+        <v>20577</v>
+      </c>
+      <c r="I50" t="s">
+        <v>28</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>1</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
         <v>337</v>
       </c>
-      <c r="B50" t="s">
+      <c r="X50" t="s">
         <v>338</v>
       </c>
-      <c r="C50" t="s">
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
         <v>339</v>
       </c>
-      <c r="D50" t="s">
+      <c r="B51" t="s">
         <v>340</v>
       </c>
-      <c r="E50" s="2">
-        <v>44699</v>
-      </c>
-      <c r="F50" t="s">
-        <v>76</v>
-      </c>
-      <c r="G50" t="s">
-        <v>317</v>
-      </c>
-      <c r="H50">
-        <v>1153</v>
-      </c>
-      <c r="I50" t="s">
-        <v>30</v>
-      </c>
-      <c r="J50">
-        <v>1</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50">
-        <v>1</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-      <c r="R50">
-        <v>0</v>
-      </c>
-      <c r="S50">
-        <v>0</v>
-      </c>
-      <c r="T50">
-        <v>0</v>
-      </c>
-      <c r="U50">
-        <v>0</v>
-      </c>
-      <c r="V50">
-        <v>0</v>
-      </c>
-      <c r="X50" t="s">
+      <c r="C51" t="s">
         <v>341</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="D51" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
+      <c r="E51" s="2">
+        <v>44704</v>
+      </c>
+      <c r="F51" t="s">
         <v>343</v>
       </c>
-      <c r="B51" t="s">
+      <c r="G51" t="s">
         <v>344</v>
       </c>
-      <c r="C51" t="s">
+      <c r="H51">
+        <v>681</v>
+      </c>
+      <c r="I51" t="s">
+        <v>157</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>1</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
         <v>345</v>
       </c>
-      <c r="D51" t="s">
-        <v>345</v>
-      </c>
-      <c r="E51" s="2">
+      <c r="X51" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>346</v>
+      </c>
+      <c r="B52" t="s">
+        <v>347</v>
+      </c>
+      <c r="C52" t="s">
+        <v>348</v>
+      </c>
+      <c r="D52" t="s">
+        <v>348</v>
+      </c>
+      <c r="E52" s="2">
         <v>44705</v>
       </c>
-      <c r="F51" t="s">
-        <v>156</v>
-      </c>
-      <c r="G51" t="s">
-        <v>346</v>
-      </c>
-      <c r="H51">
-        <v>20577</v>
-      </c>
-      <c r="I51" t="s">
-        <v>30</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>1</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
-      </c>
-      <c r="O51">
-        <v>1</v>
-      </c>
-      <c r="P51">
-        <v>1</v>
-      </c>
-      <c r="Q51">
-        <v>1</v>
-      </c>
-      <c r="R51">
-        <v>0</v>
-      </c>
-      <c r="S51">
-        <v>0</v>
-      </c>
-      <c r="T51">
-        <v>1</v>
-      </c>
-      <c r="U51">
-        <v>0</v>
-      </c>
-      <c r="V51">
-        <v>0</v>
-      </c>
-      <c r="X51" t="s">
-        <v>347</v>
-      </c>
-      <c r="Y51" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
+      <c r="F52" t="s">
+        <v>85</v>
+      </c>
+      <c r="G52" t="s">
+        <v>166</v>
+      </c>
+      <c r="H52">
+        <v>1077</v>
+      </c>
+      <c r="I52" t="s">
+        <v>28</v>
+      </c>
+      <c r="W52" t="s">
         <v>349</v>
       </c>
-      <c r="B52" t="s">
+      <c r="X52" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
         <v>350</v>
       </c>
-      <c r="C52" t="s">
+      <c r="B53" t="s">
         <v>351</v>
       </c>
-      <c r="D52" t="s">
+      <c r="C53" t="s">
         <v>352</v>
       </c>
-      <c r="E52" s="2">
-        <v>44704</v>
-      </c>
-      <c r="F52" t="s">
-        <v>353</v>
-      </c>
-      <c r="G52" t="s">
-        <v>354</v>
-      </c>
-      <c r="H52">
-        <v>681</v>
-      </c>
-      <c r="I52" t="s">
-        <v>160</v>
-      </c>
-      <c r="J52">
-        <v>1</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-      <c r="R52">
-        <v>0</v>
-      </c>
-      <c r="S52">
-        <v>0</v>
-      </c>
-      <c r="T52">
-        <v>1</v>
-      </c>
-      <c r="U52">
-        <v>0</v>
-      </c>
-      <c r="V52">
-        <v>0</v>
-      </c>
-      <c r="X52" t="s">
-        <v>355</v>
-      </c>
-      <c r="Y52" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
-        <v>356</v>
-      </c>
-      <c r="B53" t="s">
-        <v>357</v>
-      </c>
-      <c r="C53" t="s">
-        <v>358</v>
-      </c>
       <c r="D53" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="E53" s="2">
         <v>44705</v>
       </c>
       <c r="F53" t="s">
-        <v>87</v>
+        <v>197</v>
       </c>
       <c r="G53" t="s">
-        <v>169</v>
+        <v>353</v>
       </c>
       <c r="H53">
-        <v>1077</v>
+        <v>3825</v>
       </c>
       <c r="I53" t="s">
-        <v>30</v>
+        <v>127</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>1</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>354</v>
       </c>
       <c r="X53" t="s">
-        <v>359</v>
-      </c>
-      <c r="Y53" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.4">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B54" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C54" t="s">
-        <v>362</v>
+        <v>25</v>
       </c>
       <c r="D54" t="s">
-        <v>362</v>
+        <v>25</v>
       </c>
       <c r="E54" s="2">
         <v>44705</v>
       </c>
       <c r="F54" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="G54" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="H54">
-        <v>3825</v>
+        <v>2346</v>
       </c>
       <c r="I54" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -5593,13 +5477,13 @@
         <v>0</v>
       </c>
       <c r="P54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
         <v>0</v>
       </c>
       <c r="R54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S54">
         <v>0</v>
@@ -5610,713 +5494,679 @@
       <c r="U54">
         <v>0</v>
       </c>
-      <c r="V54">
-        <v>0</v>
+      <c r="W54" t="s">
+        <v>358</v>
       </c>
       <c r="X54" t="s">
-        <v>364</v>
-      </c>
-      <c r="Y54" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B55" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>361</v>
       </c>
       <c r="D55" t="s">
-        <v>27</v>
+        <v>362</v>
       </c>
       <c r="E55" s="2">
         <v>44705</v>
       </c>
       <c r="F55" t="s">
-        <v>181</v>
+        <v>363</v>
       </c>
       <c r="G55" t="s">
+        <v>364</v>
+      </c>
+      <c r="H55">
+        <v>3162</v>
+      </c>
+      <c r="I55" t="s">
+        <v>28</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>1</v>
+      </c>
+      <c r="T55">
+        <v>1</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>365</v>
+      </c>
+      <c r="X55" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>366</v>
+      </c>
+      <c r="B56" t="s">
         <v>367</v>
       </c>
-      <c r="H55">
-        <v>2346</v>
-      </c>
-      <c r="I55" t="s">
-        <v>115</v>
-      </c>
-      <c r="J55">
-        <v>1</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>1</v>
-      </c>
-      <c r="R55">
-        <v>0</v>
-      </c>
-      <c r="S55">
-        <v>0</v>
-      </c>
-      <c r="T55">
-        <v>0</v>
-      </c>
-      <c r="U55">
-        <v>0</v>
-      </c>
-      <c r="V55">
-        <v>0</v>
-      </c>
-      <c r="X55" t="s">
+      <c r="C56" t="s">
         <v>368</v>
       </c>
-      <c r="Y55" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
+      <c r="D56" t="s">
+        <v>368</v>
+      </c>
+      <c r="E56" s="2">
+        <v>44700</v>
+      </c>
+      <c r="F56" t="s">
+        <v>26</v>
+      </c>
+      <c r="G56" t="s">
+        <v>91</v>
+      </c>
+      <c r="H56">
+        <v>1522</v>
+      </c>
+      <c r="I56" t="s">
+        <v>127</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56" t="s">
         <v>369</v>
       </c>
-      <c r="B56" t="s">
+      <c r="W56" t="s">
         <v>370</v>
       </c>
-      <c r="C56" t="s">
+      <c r="X56" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
         <v>371</v>
       </c>
-      <c r="D56" t="s">
+      <c r="B57" t="s">
         <v>372</v>
       </c>
-      <c r="E56" s="2">
+      <c r="C57" t="s">
+        <v>373</v>
+      </c>
+      <c r="D57" t="s">
+        <v>374</v>
+      </c>
+      <c r="E57" s="2">
         <v>44705</v>
       </c>
-      <c r="F56" t="s">
-        <v>373</v>
-      </c>
-      <c r="G56" t="s">
-        <v>374</v>
-      </c>
-      <c r="H56">
-        <v>3162</v>
-      </c>
-      <c r="I56" t="s">
-        <v>30</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <v>0</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
-      <c r="R56">
-        <v>0</v>
-      </c>
-      <c r="S56">
-        <v>0</v>
-      </c>
-      <c r="T56">
-        <v>1</v>
-      </c>
-      <c r="U56">
-        <v>1</v>
-      </c>
-      <c r="V56">
-        <v>0</v>
-      </c>
-      <c r="X56" t="s">
+      <c r="F57" t="s">
+        <v>357</v>
+      </c>
+      <c r="G57" t="s">
         <v>375</v>
       </c>
-      <c r="Y56" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
+      <c r="H57">
+        <v>1760</v>
+      </c>
+      <c r="I57" t="s">
+        <v>28</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>1</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
         <v>376</v>
       </c>
-      <c r="B57" t="s">
+      <c r="X57" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
         <v>377</v>
       </c>
-      <c r="C57" t="s">
+      <c r="B58" t="s">
         <v>378</v>
       </c>
-      <c r="D57" t="s">
-        <v>378</v>
-      </c>
-      <c r="E57" s="2">
-        <v>44700</v>
-      </c>
-      <c r="F57" t="s">
-        <v>28</v>
-      </c>
-      <c r="G57" t="s">
-        <v>93</v>
-      </c>
-      <c r="H57">
-        <v>1522</v>
-      </c>
-      <c r="I57" t="s">
-        <v>129</v>
-      </c>
-      <c r="J57">
-        <v>1</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <v>0</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>1</v>
-      </c>
-      <c r="R57">
-        <v>0</v>
-      </c>
-      <c r="S57">
-        <v>0</v>
-      </c>
-      <c r="T57">
-        <v>0</v>
-      </c>
-      <c r="U57">
-        <v>0</v>
-      </c>
-      <c r="V57">
-        <v>0</v>
-      </c>
-      <c r="W57" t="s">
+      <c r="C58" t="s">
         <v>379</v>
       </c>
-      <c r="X57" t="s">
+      <c r="D58" t="s">
         <v>380</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
-        <v>381</v>
-      </c>
-      <c r="B58" t="s">
-        <v>382</v>
-      </c>
-      <c r="C58" t="s">
-        <v>383</v>
-      </c>
-      <c r="D58" t="s">
-        <v>384</v>
       </c>
       <c r="E58" s="2">
         <v>44705</v>
       </c>
       <c r="F58" t="s">
-        <v>367</v>
+        <v>74</v>
       </c>
       <c r="G58" t="s">
-        <v>385</v>
+        <v>178</v>
       </c>
       <c r="H58">
-        <v>1760</v>
+        <v>1816</v>
       </c>
       <c r="I58" t="s">
-        <v>30</v>
-      </c>
-      <c r="J58">
-        <v>1</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <v>0</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>0</v>
-      </c>
-      <c r="R58">
-        <v>0</v>
-      </c>
-      <c r="S58">
-        <v>0</v>
-      </c>
-      <c r="T58">
-        <v>1</v>
-      </c>
-      <c r="U58">
-        <v>0</v>
-      </c>
-      <c r="V58">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="W58" t="s">
+        <v>381</v>
       </c>
       <c r="X58" t="s">
-        <v>386</v>
-      </c>
-      <c r="Y58" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.4">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B59" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C59" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D59" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="E59" s="2">
         <v>44705</v>
       </c>
       <c r="F59" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="G59" t="s">
-        <v>181</v>
+        <v>385</v>
       </c>
       <c r="H59">
-        <v>1816</v>
+        <v>2612</v>
       </c>
       <c r="I59" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>1</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>386</v>
       </c>
       <c r="X59" t="s">
-        <v>391</v>
-      </c>
-      <c r="Y59" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.4">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B60" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C60" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D60" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E60" s="2">
         <v>44705</v>
       </c>
       <c r="F60" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G60" t="s">
+        <v>390</v>
+      </c>
+      <c r="H60">
+        <v>3674</v>
+      </c>
+      <c r="I60" t="s">
+        <v>157</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>1</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>391</v>
+      </c>
+      <c r="X60" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>393</v>
+      </c>
+      <c r="B61" t="s">
+        <v>394</v>
+      </c>
+      <c r="C61" t="s">
         <v>395</v>
       </c>
-      <c r="H60">
-        <v>2612</v>
-      </c>
-      <c r="I60" t="s">
-        <v>30</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <v>0</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>0</v>
-      </c>
-      <c r="R60">
-        <v>0</v>
-      </c>
-      <c r="S60">
-        <v>0</v>
-      </c>
-      <c r="T60">
-        <v>1</v>
-      </c>
-      <c r="U60">
-        <v>0</v>
-      </c>
-      <c r="V60">
-        <v>0</v>
-      </c>
-      <c r="X60" t="s">
+      <c r="D61" t="s">
         <v>396</v>
-      </c>
-      <c r="Y60" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A61" t="s">
-        <v>397</v>
-      </c>
-      <c r="B61" t="s">
-        <v>398</v>
-      </c>
-      <c r="C61" t="s">
-        <v>399</v>
-      </c>
-      <c r="D61" t="s">
-        <v>399</v>
       </c>
       <c r="E61" s="2">
         <v>44705</v>
       </c>
       <c r="F61" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G61" t="s">
+        <v>189</v>
+      </c>
+      <c r="H61">
+        <v>1992</v>
+      </c>
+      <c r="I61" t="s">
+        <v>28</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>1</v>
+      </c>
+      <c r="V61" t="s">
+        <v>397</v>
+      </c>
+      <c r="W61" t="s">
+        <v>398</v>
+      </c>
+      <c r="X61" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
         <v>400</v>
       </c>
-      <c r="H61">
-        <v>3674</v>
-      </c>
-      <c r="I61" t="s">
-        <v>160</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
-      <c r="N61">
-        <v>0</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>0</v>
-      </c>
-      <c r="R61">
-        <v>0</v>
-      </c>
-      <c r="S61">
-        <v>0</v>
-      </c>
-      <c r="T61">
-        <v>1</v>
-      </c>
-      <c r="U61">
-        <v>0</v>
-      </c>
-      <c r="V61">
-        <v>0</v>
-      </c>
-      <c r="X61" t="s">
+      <c r="B62" t="s">
         <v>401</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="C62" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A62" t="s">
-        <v>403</v>
-      </c>
-      <c r="B62" t="s">
-        <v>404</v>
-      </c>
-      <c r="C62" t="s">
-        <v>405</v>
-      </c>
       <c r="D62" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E62" s="2">
         <v>44705</v>
       </c>
       <c r="F62" t="s">
-        <v>128</v>
+        <v>344</v>
       </c>
       <c r="G62" t="s">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="H62">
-        <v>1992</v>
+        <v>2367</v>
       </c>
       <c r="I62" t="s">
-        <v>30</v>
-      </c>
-      <c r="J62">
-        <v>1</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-      <c r="N62">
-        <v>0</v>
-      </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-      <c r="P62">
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <v>0</v>
-      </c>
-      <c r="R62">
-        <v>0</v>
-      </c>
-      <c r="S62">
-        <v>0</v>
-      </c>
-      <c r="T62">
-        <v>0</v>
-      </c>
-      <c r="U62">
-        <v>0</v>
-      </c>
-      <c r="V62">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="W62" t="s">
+        <v>403</v>
+      </c>
+      <c r="X62" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>404</v>
+      </c>
+      <c r="B63" t="s">
+        <v>405</v>
+      </c>
+      <c r="C63" t="s">
+        <v>406</v>
+      </c>
+      <c r="D63" t="s">
         <v>407</v>
-      </c>
-      <c r="X62" t="s">
-        <v>408</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A63" t="s">
-        <v>410</v>
-      </c>
-      <c r="B63" t="s">
-        <v>411</v>
-      </c>
-      <c r="C63" t="s">
-        <v>412</v>
-      </c>
-      <c r="D63" t="s">
-        <v>412</v>
       </c>
       <c r="E63" s="2">
         <v>44705</v>
       </c>
       <c r="F63" t="s">
-        <v>354</v>
+        <v>408</v>
       </c>
       <c r="G63" t="s">
-        <v>81</v>
+        <v>409</v>
       </c>
       <c r="H63">
-        <v>2367</v>
+        <v>49054</v>
       </c>
       <c r="I63" t="s">
-        <v>30</v>
+        <v>72</v>
+      </c>
+      <c r="W63" t="s">
+        <v>410</v>
       </c>
       <c r="X63" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>412</v>
+      </c>
+      <c r="B64" t="s">
         <v>413</v>
       </c>
-      <c r="Y63" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A64" t="s">
+      <c r="C64" t="s">
         <v>414</v>
       </c>
-      <c r="B64" t="s">
-        <v>415</v>
-      </c>
-      <c r="C64" t="s">
-        <v>416</v>
-      </c>
       <c r="D64" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E64" s="2">
         <v>44705</v>
       </c>
       <c r="F64" t="s">
+        <v>415</v>
+      </c>
+      <c r="G64" t="s">
+        <v>416</v>
+      </c>
+      <c r="H64">
+        <v>42603</v>
+      </c>
+      <c r="I64" t="s">
+        <v>28</v>
+      </c>
+      <c r="W64" t="s">
+        <v>417</v>
+      </c>
+      <c r="X64" t="s">
         <v>418</v>
       </c>
-      <c r="G64" t="s">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
         <v>419</v>
       </c>
-      <c r="H64">
-        <v>49054</v>
-      </c>
-      <c r="I64" t="s">
-        <v>74</v>
-      </c>
-      <c r="X64" t="s">
+      <c r="B65" t="s">
         <v>420</v>
       </c>
-      <c r="Y64" t="s">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>422</v>
+      </c>
+      <c r="B66" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A65" t="s">
-        <v>422</v>
-      </c>
-      <c r="B65" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>424</v>
+      </c>
+      <c r="B67" t="s">
         <v>423</v>
       </c>
-      <c r="C65" t="s">
-        <v>424</v>
-      </c>
-      <c r="D65" t="s">
-        <v>424</v>
-      </c>
-      <c r="E65" s="2">
-        <v>44705</v>
-      </c>
-      <c r="F65" t="s">
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>426</v>
+      </c>
+      <c r="B68" t="s">
         <v>425</v>
       </c>
-      <c r="G65" t="s">
-        <v>426</v>
-      </c>
-      <c r="H65">
-        <v>42603</v>
-      </c>
-      <c r="I65" t="s">
-        <v>30</v>
-      </c>
-      <c r="X65" t="s">
-        <v>427</v>
-      </c>
-      <c r="Y65" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A66" t="s">
-        <v>429</v>
-      </c>
-      <c r="B66" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A67" t="s">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>431</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="B67" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A68" t="s">
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
         <v>434</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B70" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A69" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
         <v>436</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B71" t="s">
         <v>435</v>
       </c>
     </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>438</v>
+      </c>
+      <c r="B72" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>355</v>
+      </c>
+      <c r="B73" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>440</v>
+      </c>
+      <c r="B74" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>441</v>
+      </c>
+      <c r="B75" t="s">
+        <v>442</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B44" r:id="rId1" xr:uid="{2BC9B333-ED1D-48B2-A774-2669B374BDD4}"/>
+    <hyperlink ref="B69" r:id="rId2" xr:uid="{731EAD38-1BD8-424C-B7F0-BB0E5D290FF2}"/>
+    <hyperlink ref="B23" r:id="rId3" xr:uid="{B9FB4D5A-2B3C-4A59-8A55-43C1ECBD7B65}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>